--- a/Data/HRV_Params.xlsx
+++ b/Data/HRV_Params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utacir-my.sharepoint.com/personal/sepehr_sima_ut_ac_ir/Documents/Desktop/Projects/VNS HRV/Update/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utacir-my.sharepoint.com/personal/sepehr_sima_ut_ac_ir/Documents/Desktop/Projects/VNS HRV/tVNSHRV-metaAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{C0B6B67F-FE27-4DD7-B7DA-46E330023CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5727DD-3E82-455D-8F46-652E5468DFB6}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{C0B6B67F-FE27-4DD7-B7DA-46E330023CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83817A72-A3CB-4445-A4BB-77C26073A8F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RMSSD!$A$1:$Z$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SDNN!$A$1:$Z$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="511">
   <si>
     <t>design</t>
   </si>
@@ -4802,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:A15"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4830,6 +4830,9 @@
     <col min="20" max="21" width="17.42578125" customWidth="1"/>
     <col min="22" max="22" width="24" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5782,14 +5785,14 @@
       <c r="W12" s="2">
         <v>42</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>107</v>
+      <c r="X12" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5862,14 +5865,14 @@
       <c r="W13" s="2">
         <v>42</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>107</v>
+      <c r="X13" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -6363,8 +6366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,14 +7506,14 @@
       <c r="W14" s="2">
         <v>42</v>
       </c>
-      <c r="X14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>107</v>
+      <c r="X14" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7583,14 +7586,14 @@
       <c r="W15" s="2">
         <v>42</v>
       </c>
-      <c r="X15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>107</v>
+      <c r="X15" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -8294,7 +8297,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="X12" sqref="X12:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9275,14 +9278,14 @@
       <c r="W12" s="2">
         <v>42</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>107</v>
+      <c r="X12" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9355,14 +9358,14 @@
       <c r="W13" s="2">
         <v>42</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>107</v>
+      <c r="X13" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -10335,8 +10338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11359,14 +11362,14 @@
       <c r="W11" s="2">
         <v>9</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>107</v>
+      <c r="X11" s="4">
+        <v>1.0954451150103321E-4</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>5.3999999999999994E-3</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>107</v>
@@ -11543,14 +11546,14 @@
       <c r="W13" s="2">
         <v>42</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>107</v>
+      <c r="X13" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>107</v>
@@ -11635,14 +11638,14 @@
       <c r="W14" s="2">
         <v>42</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>107</v>
+      <c r="X14" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>107</v>
@@ -12036,8 +12039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12617,14 +12620,14 @@
       <c r="W7" s="2">
         <v>42</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>107</v>
+      <c r="X7" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -12697,14 +12700,14 @@
       <c r="W8" s="2">
         <v>42</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>107</v>
+      <c r="X8" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -13038,7 +13041,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+      <selection activeCell="X3" sqref="X3:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13301,14 +13304,14 @@
       <c r="W3" s="2">
         <v>42</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>107</v>
+      <c r="X3" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -13381,14 +13384,14 @@
       <c r="W4" s="2">
         <v>42</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>107</v>
+      <c r="X4" s="4">
+        <v>2.2360679774997898E-4</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -13503,8 +13506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718676A1-F033-4171-B0C1-6902E36836B2}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:Z6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
